--- a/Python/Market Data.xlsx
+++ b/Python/Market Data.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptp/Documents/Pushkar/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E5A1D2-149C-C249-8C30-E39D6ED81801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D2D0C-E584-0A41-95D3-62E48A3A7A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25820" yWindow="3580" windowWidth="27460" windowHeight="21400" activeTab="2" xr2:uid="{77BC7AFC-A077-CB42-B4DA-3EC3BF4E2F1A}"/>
+    <workbookView xWindow="26080" yWindow="2220" windowWidth="25120" windowHeight="21400" activeTab="4" xr2:uid="{77BC7AFC-A077-CB42-B4DA-3EC3BF4E2F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Brent" sheetId="1" r:id="rId1"/>
     <sheet name="USDIRS" sheetId="2" r:id="rId2"/>
     <sheet name="SOFRFix" sheetId="7" r:id="rId3"/>
-    <sheet name="INRFX" sheetId="3" r:id="rId4"/>
-    <sheet name="INROIS" sheetId="4" r:id="rId5"/>
-    <sheet name="INRMIF" sheetId="5" r:id="rId6"/>
-    <sheet name="USDIRS (2)" sheetId="6" r:id="rId7"/>
+    <sheet name="USDIRSShort" sheetId="8" r:id="rId4"/>
+    <sheet name="INRFX" sheetId="3" r:id="rId5"/>
+    <sheet name="INROIS" sheetId="4" r:id="rId6"/>
+    <sheet name="INRMIF" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="446">
   <si>
     <t>Date</t>
   </si>
@@ -1359,6 +1359,24 @@
   </si>
   <si>
     <t>Data Source: https://www.newyorkfed.org/markets/reference-rates/sofr</t>
+  </si>
+  <si>
+    <t>Tenor</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Rate %</t>
   </si>
 </sst>
 </file>
@@ -1882,11 +1900,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1897,6 +1914,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3169,56 +3189,56 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="7"/>
-      <c r="L1" s="15" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>83</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -3241,14 +3261,14 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>4.0749800000000003E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>M3</f>
         <v>46163</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D12" si="0">N3</f>
         <v>46168</v>
       </c>
@@ -3256,25 +3276,25 @@
         <f t="shared" ref="E3:E12" si="1">O3</f>
         <v>0.95980183035595434</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F12" si="2">P3</f>
         <v>4.0474004129002948E-2</v>
       </c>
       <c r="G3" s="2">
         <v>0.960094</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>4.0502099999999999E-2</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>46163</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>46168</v>
       </c>
       <c r="O3" s="2">
@@ -3288,14 +3308,14 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3.7767000000000002E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" ref="C4:C12" si="3">M4</f>
         <v>46528</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>46531</v>
       </c>
@@ -3303,25 +3323,25 @@
         <f t="shared" si="1"/>
         <v>0.92742626036444031</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f t="shared" si="2"/>
         <v>3.75168169558458E-2</v>
       </c>
       <c r="G4" s="2">
         <v>0.92748200000000003</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>3.7537899999999999E-2</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>46528</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>46531</v>
       </c>
       <c r="O4" s="2">
@@ -3335,14 +3355,14 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>3.7051000000000001E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="3"/>
         <v>46895</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>46897</v>
       </c>
@@ -3350,24 +3370,24 @@
         <f t="shared" si="1"/>
         <v>0.89508559216610684</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="2"/>
         <v>3.6877953532162396E-2</v>
       </c>
       <c r="G5" s="2">
         <v>0.89504499999999998</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>3.6825799999999999E-2</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="8"/>
       <c r="L5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>46895</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>46897</v>
       </c>
       <c r="O5" s="2">
@@ -3381,14 +3401,14 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>3.7069999999999999E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="3"/>
         <v>47259</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>47261</v>
       </c>
@@ -3396,24 +3416,24 @@
         <f t="shared" si="1"/>
         <v>0.86269630433389466</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="2"/>
         <v>3.6872628736099887E-2</v>
       </c>
       <c r="G6" s="2">
         <v>0.86265800000000004</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>3.6858599999999998E-2</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="8"/>
       <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>47259</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>47261</v>
       </c>
       <c r="O6" s="2">
@@ -3427,14 +3447,14 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>3.7380499999999997E-2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="3"/>
         <v>47624</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>47626</v>
       </c>
@@ -3442,24 +3462,24 @@
         <f t="shared" si="1"/>
         <v>0.83008624461640335</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="2"/>
         <v>3.7204362978024222E-2</v>
       </c>
       <c r="G7" s="2">
         <v>0.83005099999999998</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>3.7192599999999999E-2</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="8"/>
       <c r="L7" s="2">
         <v>4</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>47624</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>47626</v>
       </c>
       <c r="O7" s="2">
@@ -3473,14 +3493,14 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>3.7866999999999998E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="3"/>
         <v>47989</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>47991</v>
       </c>
@@ -3488,24 +3508,24 @@
         <f t="shared" si="1"/>
         <v>0.79726549121341306</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>3.7726803376714343E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.797234</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>3.7716199999999998E-2</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="8"/>
       <c r="L8" s="2">
         <v>5</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>47989</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>47991</v>
       </c>
       <c r="O8" s="2">
@@ -3519,14 +3539,14 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>3.8377500000000002E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f t="shared" si="3"/>
         <v>48355</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>48358</v>
       </c>
@@ -3534,24 +3554,24 @@
         <f t="shared" si="1"/>
         <v>0.76461765315891628</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>3.8294945273509316E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.76466800000000001</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>3.8270600000000002E-2</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="8"/>
       <c r="L9" s="2">
         <v>6</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>48355</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>48358</v>
       </c>
       <c r="O9" s="2">
@@ -3565,14 +3585,14 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>3.88615E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" si="3"/>
         <v>48722</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>48724</v>
       </c>
@@ -3580,24 +3600,24 @@
         <f t="shared" si="1"/>
         <v>0.73270070294444356</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="2"/>
         <v>3.8850637277906032E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.73267700000000002</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>3.8801599999999999E-2</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="8"/>
       <c r="L10" s="2">
         <v>7</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>48722</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>48724</v>
       </c>
       <c r="O10" s="2">
@@ -3611,14 +3631,14 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>3.93125E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="3"/>
         <v>49086</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>49088</v>
       </c>
@@ -3626,24 +3646,24 @@
         <f t="shared" si="1"/>
         <v>0.70170627299561461</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>3.9336092979641066E-2</v>
       </c>
       <c r="G11" s="2">
         <v>0.70168600000000003</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>3.9303499999999998E-2</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="8"/>
       <c r="L11" s="2">
         <v>8</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>49086</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>49088</v>
       </c>
       <c r="O11" s="2">
@@ -3657,14 +3677,14 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>3.9746499999999997E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="3"/>
         <v>49450</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>49452</v>
       </c>
@@ -3672,24 +3692,24 @@
         <f t="shared" si="1"/>
         <v>0.67142968418523452</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>3.9812783080745706E-2</v>
       </c>
       <c r="G12" s="2">
         <v>0.67141300000000004</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>3.9793500000000002E-2</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="8"/>
       <c r="L12" s="2">
         <v>9</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>49450</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>49452</v>
       </c>
       <c r="O12" s="2">
@@ -3700,10 +3720,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3719,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A9511E-FB32-354E-8D72-3A3A833CF023}">
   <dimension ref="A1:O348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3730,31 +3750,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>99</v>
       </c>
       <c r="O1" t="s">
@@ -3762,13 +3782,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>DATE(RIGHT(A2,4),LEFT(A2,2),RIGHT(LEFT(A2,5),2))</f>
         <v>45798</v>
       </c>
@@ -3790,7 +3810,7 @@
       <c r="I2">
         <v>2517</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3799,7 +3819,7 @@
       <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C66" si="0">DATE(RIGHT(A3,4),LEFT(A3,2),RIGHT(LEFT(A3,5),2))</f>
         <v>45797</v>
       </c>
@@ -3829,7 +3849,7 @@
       <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
         <v>45796</v>
       </c>
@@ -3859,7 +3879,7 @@
       <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>45793</v>
       </c>
@@ -3889,7 +3909,7 @@
       <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>45792</v>
       </c>
@@ -3919,7 +3939,7 @@
       <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>45791</v>
       </c>
@@ -3949,7 +3969,7 @@
       <c r="B8" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>45790</v>
       </c>
@@ -3979,7 +3999,7 @@
       <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>45789</v>
       </c>
@@ -4009,7 +4029,7 @@
       <c r="B10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>45786</v>
       </c>
@@ -4039,7 +4059,7 @@
       <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>45785</v>
       </c>
@@ -4069,7 +4089,7 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>45784</v>
       </c>
@@ -4099,7 +4119,7 @@
       <c r="B13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>45783</v>
       </c>
@@ -4129,7 +4149,7 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>45782</v>
       </c>
@@ -4159,7 +4179,7 @@
       <c r="B15" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>45779</v>
       </c>
@@ -4189,7 +4209,7 @@
       <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
@@ -4219,7 +4239,7 @@
       <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>45777</v>
       </c>
@@ -4249,7 +4269,7 @@
       <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>45776</v>
       </c>
@@ -4279,7 +4299,7 @@
       <c r="B19" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>45775</v>
       </c>
@@ -4309,7 +4329,7 @@
       <c r="B20" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>45772</v>
       </c>
@@ -4339,7 +4359,7 @@
       <c r="B21" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>45771</v>
       </c>
@@ -4369,7 +4389,7 @@
       <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>45770</v>
       </c>
@@ -4399,7 +4419,7 @@
       <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f t="shared" si="0"/>
         <v>45769</v>
       </c>
@@ -4429,7 +4449,7 @@
       <c r="B24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>45768</v>
       </c>
@@ -4459,7 +4479,7 @@
       <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>45764</v>
       </c>
@@ -4489,7 +4509,7 @@
       <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>45763</v>
       </c>
@@ -4519,7 +4539,7 @@
       <c r="B27" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>45762</v>
       </c>
@@ -4549,7 +4569,7 @@
       <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>45761</v>
       </c>
@@ -4579,7 +4599,7 @@
       <c r="B29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <f t="shared" si="0"/>
         <v>45758</v>
       </c>
@@ -4609,7 +4629,7 @@
       <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <f t="shared" si="0"/>
         <v>45757</v>
       </c>
@@ -4639,7 +4659,7 @@
       <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f t="shared" si="0"/>
         <v>45756</v>
       </c>
@@ -4669,7 +4689,7 @@
       <c r="B32" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <f t="shared" si="0"/>
         <v>45755</v>
       </c>
@@ -4699,7 +4719,7 @@
       <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f t="shared" si="0"/>
         <v>45754</v>
       </c>
@@ -4729,7 +4749,7 @@
       <c r="B34" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="0"/>
         <v>45751</v>
       </c>
@@ -4759,7 +4779,7 @@
       <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <f t="shared" si="0"/>
         <v>45750</v>
       </c>
@@ -4789,7 +4809,7 @@
       <c r="B36" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <f t="shared" si="0"/>
         <v>45749</v>
       </c>
@@ -4819,7 +4839,7 @@
       <c r="B37" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <f t="shared" si="0"/>
         <v>45748</v>
       </c>
@@ -4849,7 +4869,7 @@
       <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <f t="shared" si="0"/>
         <v>45747</v>
       </c>
@@ -4879,7 +4899,7 @@
       <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <f t="shared" si="0"/>
         <v>45744</v>
       </c>
@@ -4909,7 +4929,7 @@
       <c r="B40" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <f t="shared" si="0"/>
         <v>45743</v>
       </c>
@@ -4939,7 +4959,7 @@
       <c r="B41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <f t="shared" si="0"/>
         <v>45742</v>
       </c>
@@ -4969,7 +4989,7 @@
       <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <f t="shared" si="0"/>
         <v>45741</v>
       </c>
@@ -4999,7 +5019,7 @@
       <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <f t="shared" si="0"/>
         <v>45740</v>
       </c>
@@ -5029,7 +5049,7 @@
       <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <f t="shared" si="0"/>
         <v>45737</v>
       </c>
@@ -5059,7 +5079,7 @@
       <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <f t="shared" si="0"/>
         <v>45736</v>
       </c>
@@ -5089,7 +5109,7 @@
       <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <f t="shared" si="0"/>
         <v>45735</v>
       </c>
@@ -5119,7 +5139,7 @@
       <c r="B47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <f t="shared" si="0"/>
         <v>45734</v>
       </c>
@@ -5149,7 +5169,7 @@
       <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <f t="shared" si="0"/>
         <v>45733</v>
       </c>
@@ -5179,7 +5199,7 @@
       <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <f t="shared" si="0"/>
         <v>45730</v>
       </c>
@@ -5209,7 +5229,7 @@
       <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <f t="shared" si="0"/>
         <v>45729</v>
       </c>
@@ -5239,7 +5259,7 @@
       <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <f t="shared" si="0"/>
         <v>45728</v>
       </c>
@@ -5269,7 +5289,7 @@
       <c r="B52" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <f t="shared" si="0"/>
         <v>45727</v>
       </c>
@@ -5299,7 +5319,7 @@
       <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <f t="shared" si="0"/>
         <v>45726</v>
       </c>
@@ -5329,7 +5349,7 @@
       <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <f t="shared" si="0"/>
         <v>45723</v>
       </c>
@@ -5359,7 +5379,7 @@
       <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <f t="shared" si="0"/>
         <v>45722</v>
       </c>
@@ -5389,7 +5409,7 @@
       <c r="B56" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <f t="shared" si="0"/>
         <v>45721</v>
       </c>
@@ -5419,7 +5439,7 @@
       <c r="B57" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <f t="shared" si="0"/>
         <v>45720</v>
       </c>
@@ -5449,7 +5469,7 @@
       <c r="B58" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <f t="shared" si="0"/>
         <v>45719</v>
       </c>
@@ -5479,7 +5499,7 @@
       <c r="B59" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <f t="shared" si="0"/>
         <v>45716</v>
       </c>
@@ -5509,7 +5529,7 @@
       <c r="B60" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <f t="shared" si="0"/>
         <v>45715</v>
       </c>
@@ -5539,7 +5559,7 @@
       <c r="B61" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <f t="shared" si="0"/>
         <v>45714</v>
       </c>
@@ -5569,7 +5589,7 @@
       <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <f t="shared" si="0"/>
         <v>45713</v>
       </c>
@@ -5599,7 +5619,7 @@
       <c r="B63" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <f t="shared" si="0"/>
         <v>45712</v>
       </c>
@@ -5629,7 +5649,7 @@
       <c r="B64" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <f t="shared" si="0"/>
         <v>45709</v>
       </c>
@@ -5659,7 +5679,7 @@
       <c r="B65" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <f t="shared" si="0"/>
         <v>45708</v>
       </c>
@@ -5689,7 +5709,7 @@
       <c r="B66" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <f t="shared" si="0"/>
         <v>45707</v>
       </c>
@@ -5719,7 +5739,7 @@
       <c r="B67" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <f t="shared" ref="C67:C130" si="1">DATE(RIGHT(A67,4),LEFT(A67,2),RIGHT(LEFT(A67,5),2))</f>
         <v>45706</v>
       </c>
@@ -5749,7 +5769,7 @@
       <c r="B68" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <f t="shared" si="1"/>
         <v>45702</v>
       </c>
@@ -5779,7 +5799,7 @@
       <c r="B69" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <f t="shared" si="1"/>
         <v>45701</v>
       </c>
@@ -5809,7 +5829,7 @@
       <c r="B70" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <f t="shared" si="1"/>
         <v>45700</v>
       </c>
@@ -5839,7 +5859,7 @@
       <c r="B71" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <f t="shared" si="1"/>
         <v>45699</v>
       </c>
@@ -5869,7 +5889,7 @@
       <c r="B72" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <f t="shared" si="1"/>
         <v>45698</v>
       </c>
@@ -5899,7 +5919,7 @@
       <c r="B73" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <f t="shared" si="1"/>
         <v>45695</v>
       </c>
@@ -5929,7 +5949,7 @@
       <c r="B74" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <f t="shared" si="1"/>
         <v>45694</v>
       </c>
@@ -5959,7 +5979,7 @@
       <c r="B75" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <f t="shared" si="1"/>
         <v>45693</v>
       </c>
@@ -5989,7 +6009,7 @@
       <c r="B76" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <f t="shared" si="1"/>
         <v>45692</v>
       </c>
@@ -6019,7 +6039,7 @@
       <c r="B77" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <f t="shared" si="1"/>
         <v>45691</v>
       </c>
@@ -6049,7 +6069,7 @@
       <c r="B78" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <f t="shared" si="1"/>
         <v>45688</v>
       </c>
@@ -6079,7 +6099,7 @@
       <c r="B79" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <f t="shared" si="1"/>
         <v>45687</v>
       </c>
@@ -6109,7 +6129,7 @@
       <c r="B80" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <f t="shared" si="1"/>
         <v>45686</v>
       </c>
@@ -6139,7 +6159,7 @@
       <c r="B81" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <f t="shared" si="1"/>
         <v>45685</v>
       </c>
@@ -6169,7 +6189,7 @@
       <c r="B82" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <f t="shared" si="1"/>
         <v>45684</v>
       </c>
@@ -6199,7 +6219,7 @@
       <c r="B83" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <f t="shared" si="1"/>
         <v>45681</v>
       </c>
@@ -6229,7 +6249,7 @@
       <c r="B84" t="s">
         <v>101</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <f t="shared" si="1"/>
         <v>45680</v>
       </c>
@@ -6259,7 +6279,7 @@
       <c r="B85" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <f t="shared" si="1"/>
         <v>45679</v>
       </c>
@@ -6289,7 +6309,7 @@
       <c r="B86" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <f t="shared" si="1"/>
         <v>45678</v>
       </c>
@@ -6319,7 +6339,7 @@
       <c r="B87" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <f t="shared" si="1"/>
         <v>45674</v>
       </c>
@@ -6349,7 +6369,7 @@
       <c r="B88" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <f t="shared" si="1"/>
         <v>45673</v>
       </c>
@@ -6379,7 +6399,7 @@
       <c r="B89" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <f t="shared" si="1"/>
         <v>45672</v>
       </c>
@@ -6409,7 +6429,7 @@
       <c r="B90" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <f t="shared" si="1"/>
         <v>45671</v>
       </c>
@@ -6439,7 +6459,7 @@
       <c r="B91" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <f t="shared" si="1"/>
         <v>45670</v>
       </c>
@@ -6469,7 +6489,7 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <f t="shared" si="1"/>
         <v>45667</v>
       </c>
@@ -6499,7 +6519,7 @@
       <c r="B93" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <f t="shared" si="1"/>
         <v>45666</v>
       </c>
@@ -6529,7 +6549,7 @@
       <c r="B94" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <f t="shared" si="1"/>
         <v>45665</v>
       </c>
@@ -6559,7 +6579,7 @@
       <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <f t="shared" si="1"/>
         <v>45664</v>
       </c>
@@ -6589,7 +6609,7 @@
       <c r="B96" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <f t="shared" si="1"/>
         <v>45663</v>
       </c>
@@ -6619,7 +6639,7 @@
       <c r="B97" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <f t="shared" si="1"/>
         <v>45660</v>
       </c>
@@ -6649,7 +6669,7 @@
       <c r="B98" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <f t="shared" si="1"/>
         <v>45659</v>
       </c>
@@ -6679,7 +6699,7 @@
       <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <f t="shared" si="1"/>
         <v>45657</v>
       </c>
@@ -6709,7 +6729,7 @@
       <c r="B100" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <f t="shared" si="1"/>
         <v>45656</v>
       </c>
@@ -6739,7 +6759,7 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <f t="shared" si="1"/>
         <v>45653</v>
       </c>
@@ -6769,7 +6789,7 @@
       <c r="B102" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="6">
         <f t="shared" si="1"/>
         <v>45652</v>
       </c>
@@ -6799,7 +6819,7 @@
       <c r="B103" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="6">
         <f t="shared" si="1"/>
         <v>45650</v>
       </c>
@@ -6829,7 +6849,7 @@
       <c r="B104" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <f t="shared" si="1"/>
         <v>45649</v>
       </c>
@@ -6859,7 +6879,7 @@
       <c r="B105" t="s">
         <v>101</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <f t="shared" si="1"/>
         <v>45646</v>
       </c>
@@ -6889,7 +6909,7 @@
       <c r="B106" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="6">
         <f t="shared" si="1"/>
         <v>45645</v>
       </c>
@@ -6919,7 +6939,7 @@
       <c r="B107" t="s">
         <v>101</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <f t="shared" si="1"/>
         <v>45644</v>
       </c>
@@ -6949,7 +6969,7 @@
       <c r="B108" t="s">
         <v>101</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <f t="shared" si="1"/>
         <v>45643</v>
       </c>
@@ -6979,7 +6999,7 @@
       <c r="B109" t="s">
         <v>101</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <f t="shared" si="1"/>
         <v>45642</v>
       </c>
@@ -7009,7 +7029,7 @@
       <c r="B110" t="s">
         <v>101</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <f t="shared" si="1"/>
         <v>45639</v>
       </c>
@@ -7039,7 +7059,7 @@
       <c r="B111" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="6">
         <f t="shared" si="1"/>
         <v>45638</v>
       </c>
@@ -7069,7 +7089,7 @@
       <c r="B112" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <f t="shared" si="1"/>
         <v>45637</v>
       </c>
@@ -7099,7 +7119,7 @@
       <c r="B113" t="s">
         <v>101</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="6">
         <f t="shared" si="1"/>
         <v>45636</v>
       </c>
@@ -7129,7 +7149,7 @@
       <c r="B114" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <f t="shared" si="1"/>
         <v>45635</v>
       </c>
@@ -7159,7 +7179,7 @@
       <c r="B115" t="s">
         <v>101</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <f t="shared" si="1"/>
         <v>45632</v>
       </c>
@@ -7189,7 +7209,7 @@
       <c r="B116" t="s">
         <v>101</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <f t="shared" si="1"/>
         <v>45631</v>
       </c>
@@ -7219,7 +7239,7 @@
       <c r="B117" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <f t="shared" si="1"/>
         <v>45630</v>
       </c>
@@ -7249,7 +7269,7 @@
       <c r="B118" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <f t="shared" si="1"/>
         <v>45629</v>
       </c>
@@ -7279,7 +7299,7 @@
       <c r="B119" t="s">
         <v>101</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="6">
         <f t="shared" si="1"/>
         <v>45628</v>
       </c>
@@ -7309,7 +7329,7 @@
       <c r="B120" t="s">
         <v>101</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="6">
         <f t="shared" si="1"/>
         <v>45625</v>
       </c>
@@ -7339,7 +7359,7 @@
       <c r="B121" t="s">
         <v>101</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="6">
         <f t="shared" si="1"/>
         <v>45623</v>
       </c>
@@ -7369,7 +7389,7 @@
       <c r="B122" t="s">
         <v>101</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="6">
         <f t="shared" si="1"/>
         <v>45622</v>
       </c>
@@ -7399,7 +7419,7 @@
       <c r="B123" t="s">
         <v>101</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <f t="shared" si="1"/>
         <v>45621</v>
       </c>
@@ -7429,7 +7449,7 @@
       <c r="B124" t="s">
         <v>101</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <f t="shared" si="1"/>
         <v>45618</v>
       </c>
@@ -7459,7 +7479,7 @@
       <c r="B125" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="6">
         <f t="shared" si="1"/>
         <v>45617</v>
       </c>
@@ -7489,7 +7509,7 @@
       <c r="B126" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="6">
         <f t="shared" si="1"/>
         <v>45616</v>
       </c>
@@ -7519,7 +7539,7 @@
       <c r="B127" t="s">
         <v>101</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="6">
         <f t="shared" si="1"/>
         <v>45615</v>
       </c>
@@ -7549,7 +7569,7 @@
       <c r="B128" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="6">
         <f t="shared" si="1"/>
         <v>45614</v>
       </c>
@@ -7579,7 +7599,7 @@
       <c r="B129" t="s">
         <v>101</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="6">
         <f t="shared" si="1"/>
         <v>45611</v>
       </c>
@@ -7609,7 +7629,7 @@
       <c r="B130" t="s">
         <v>101</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="6">
         <f t="shared" si="1"/>
         <v>45610</v>
       </c>
@@ -7639,7 +7659,7 @@
       <c r="B131" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="6">
         <f t="shared" ref="C131:C194" si="2">DATE(RIGHT(A131,4),LEFT(A131,2),RIGHT(LEFT(A131,5),2))</f>
         <v>45609</v>
       </c>
@@ -7669,7 +7689,7 @@
       <c r="B132" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="6">
         <f t="shared" si="2"/>
         <v>45608</v>
       </c>
@@ -7699,7 +7719,7 @@
       <c r="B133" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="6">
         <f t="shared" si="2"/>
         <v>45604</v>
       </c>
@@ -7729,7 +7749,7 @@
       <c r="B134" t="s">
         <v>101</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="6">
         <f t="shared" si="2"/>
         <v>45603</v>
       </c>
@@ -7759,7 +7779,7 @@
       <c r="B135" t="s">
         <v>101</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="6">
         <f t="shared" si="2"/>
         <v>45602</v>
       </c>
@@ -7789,7 +7809,7 @@
       <c r="B136" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="6">
         <f t="shared" si="2"/>
         <v>45601</v>
       </c>
@@ -7819,7 +7839,7 @@
       <c r="B137" t="s">
         <v>101</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="6">
         <f t="shared" si="2"/>
         <v>45600</v>
       </c>
@@ -7849,7 +7869,7 @@
       <c r="B138" t="s">
         <v>101</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="6">
         <f t="shared" si="2"/>
         <v>45597</v>
       </c>
@@ -7879,7 +7899,7 @@
       <c r="B139" t="s">
         <v>101</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="6">
         <f t="shared" si="2"/>
         <v>45596</v>
       </c>
@@ -7909,7 +7929,7 @@
       <c r="B140" t="s">
         <v>101</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="6">
         <f t="shared" si="2"/>
         <v>45595</v>
       </c>
@@ -7939,7 +7959,7 @@
       <c r="B141" t="s">
         <v>101</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="6">
         <f t="shared" si="2"/>
         <v>45594</v>
       </c>
@@ -7969,7 +7989,7 @@
       <c r="B142" t="s">
         <v>101</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="6">
         <f t="shared" si="2"/>
         <v>45593</v>
       </c>
@@ -7999,7 +8019,7 @@
       <c r="B143" t="s">
         <v>101</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="6">
         <f t="shared" si="2"/>
         <v>45590</v>
       </c>
@@ -8029,7 +8049,7 @@
       <c r="B144" t="s">
         <v>101</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="6">
         <f t="shared" si="2"/>
         <v>45589</v>
       </c>
@@ -8059,7 +8079,7 @@
       <c r="B145" t="s">
         <v>101</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="6">
         <f t="shared" si="2"/>
         <v>45588</v>
       </c>
@@ -8089,7 +8109,7 @@
       <c r="B146" t="s">
         <v>101</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="6">
         <f t="shared" si="2"/>
         <v>45587</v>
       </c>
@@ -8119,7 +8139,7 @@
       <c r="B147" t="s">
         <v>101</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="6">
         <f t="shared" si="2"/>
         <v>45586</v>
       </c>
@@ -8149,7 +8169,7 @@
       <c r="B148" t="s">
         <v>101</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="6">
         <f t="shared" si="2"/>
         <v>45583</v>
       </c>
@@ -8179,7 +8199,7 @@
       <c r="B149" t="s">
         <v>101</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="6">
         <f t="shared" si="2"/>
         <v>45582</v>
       </c>
@@ -8209,7 +8229,7 @@
       <c r="B150" t="s">
         <v>101</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="6">
         <f t="shared" si="2"/>
         <v>45581</v>
       </c>
@@ -8239,7 +8259,7 @@
       <c r="B151" t="s">
         <v>101</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="6">
         <f t="shared" si="2"/>
         <v>45580</v>
       </c>
@@ -8269,7 +8289,7 @@
       <c r="B152" t="s">
         <v>101</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="6">
         <f t="shared" si="2"/>
         <v>45576</v>
       </c>
@@ -8299,7 +8319,7 @@
       <c r="B153" t="s">
         <v>101</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="6">
         <f t="shared" si="2"/>
         <v>45575</v>
       </c>
@@ -8329,7 +8349,7 @@
       <c r="B154" t="s">
         <v>101</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="6">
         <f t="shared" si="2"/>
         <v>45574</v>
       </c>
@@ -8359,7 +8379,7 @@
       <c r="B155" t="s">
         <v>101</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="6">
         <f t="shared" si="2"/>
         <v>45573</v>
       </c>
@@ -8389,7 +8409,7 @@
       <c r="B156" t="s">
         <v>101</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="6">
         <f t="shared" si="2"/>
         <v>45572</v>
       </c>
@@ -8419,7 +8439,7 @@
       <c r="B157" t="s">
         <v>101</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="6">
         <f t="shared" si="2"/>
         <v>45569</v>
       </c>
@@ -8449,7 +8469,7 @@
       <c r="B158" t="s">
         <v>101</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="6">
         <f t="shared" si="2"/>
         <v>45568</v>
       </c>
@@ -8479,7 +8499,7 @@
       <c r="B159" t="s">
         <v>101</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="6">
         <f t="shared" si="2"/>
         <v>45567</v>
       </c>
@@ -8509,7 +8529,7 @@
       <c r="B160" t="s">
         <v>101</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="6">
         <f t="shared" si="2"/>
         <v>45566</v>
       </c>
@@ -8539,7 +8559,7 @@
       <c r="B161" t="s">
         <v>101</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="6">
         <f t="shared" si="2"/>
         <v>45565</v>
       </c>
@@ -8569,7 +8589,7 @@
       <c r="B162" t="s">
         <v>101</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="6">
         <f t="shared" si="2"/>
         <v>45562</v>
       </c>
@@ -8599,7 +8619,7 @@
       <c r="B163" t="s">
         <v>101</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="6">
         <f t="shared" si="2"/>
         <v>45561</v>
       </c>
@@ -8629,7 +8649,7 @@
       <c r="B164" t="s">
         <v>101</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="6">
         <f t="shared" si="2"/>
         <v>45560</v>
       </c>
@@ -8659,7 +8679,7 @@
       <c r="B165" t="s">
         <v>101</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="6">
         <f t="shared" si="2"/>
         <v>45559</v>
       </c>
@@ -8689,7 +8709,7 @@
       <c r="B166" t="s">
         <v>101</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="6">
         <f t="shared" si="2"/>
         <v>45558</v>
       </c>
@@ -8719,7 +8739,7 @@
       <c r="B167" t="s">
         <v>101</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="6">
         <f t="shared" si="2"/>
         <v>45555</v>
       </c>
@@ -8749,7 +8769,7 @@
       <c r="B168" t="s">
         <v>101</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="6">
         <f t="shared" si="2"/>
         <v>45554</v>
       </c>
@@ -8779,7 +8799,7 @@
       <c r="B169" t="s">
         <v>101</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="6">
         <f t="shared" si="2"/>
         <v>45553</v>
       </c>
@@ -8809,7 +8829,7 @@
       <c r="B170" t="s">
         <v>101</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="6">
         <f t="shared" si="2"/>
         <v>45552</v>
       </c>
@@ -8839,7 +8859,7 @@
       <c r="B171" t="s">
         <v>101</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="6">
         <f t="shared" si="2"/>
         <v>45551</v>
       </c>
@@ -8869,7 +8889,7 @@
       <c r="B172" t="s">
         <v>101</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="6">
         <f t="shared" si="2"/>
         <v>45548</v>
       </c>
@@ -8899,7 +8919,7 @@
       <c r="B173" t="s">
         <v>101</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="6">
         <f t="shared" si="2"/>
         <v>45547</v>
       </c>
@@ -8929,7 +8949,7 @@
       <c r="B174" t="s">
         <v>101</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="6">
         <f t="shared" si="2"/>
         <v>45546</v>
       </c>
@@ -8959,7 +8979,7 @@
       <c r="B175" t="s">
         <v>101</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="6">
         <f t="shared" si="2"/>
         <v>45545</v>
       </c>
@@ -8989,7 +9009,7 @@
       <c r="B176" t="s">
         <v>101</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="6">
         <f t="shared" si="2"/>
         <v>45544</v>
       </c>
@@ -9019,7 +9039,7 @@
       <c r="B177" t="s">
         <v>101</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="6">
         <f t="shared" si="2"/>
         <v>45541</v>
       </c>
@@ -9049,7 +9069,7 @@
       <c r="B178" t="s">
         <v>101</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <f t="shared" si="2"/>
         <v>45540</v>
       </c>
@@ -9079,7 +9099,7 @@
       <c r="B179" t="s">
         <v>101</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <f t="shared" si="2"/>
         <v>45539</v>
       </c>
@@ -9109,7 +9129,7 @@
       <c r="B180" t="s">
         <v>101</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="6">
         <f t="shared" si="2"/>
         <v>45538</v>
       </c>
@@ -9139,7 +9159,7 @@
       <c r="B181" t="s">
         <v>101</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="6">
         <f t="shared" si="2"/>
         <v>45534</v>
       </c>
@@ -9169,7 +9189,7 @@
       <c r="B182" t="s">
         <v>101</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="6">
         <f t="shared" si="2"/>
         <v>45533</v>
       </c>
@@ -9199,7 +9219,7 @@
       <c r="B183" t="s">
         <v>101</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="6">
         <f t="shared" si="2"/>
         <v>45532</v>
       </c>
@@ -9229,7 +9249,7 @@
       <c r="B184" t="s">
         <v>101</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="6">
         <f t="shared" si="2"/>
         <v>45531</v>
       </c>
@@ -9259,7 +9279,7 @@
       <c r="B185" t="s">
         <v>101</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="6">
         <f t="shared" si="2"/>
         <v>45530</v>
       </c>
@@ -9289,7 +9309,7 @@
       <c r="B186" t="s">
         <v>101</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="6">
         <f t="shared" si="2"/>
         <v>45527</v>
       </c>
@@ -9319,7 +9339,7 @@
       <c r="B187" t="s">
         <v>101</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="6">
         <f t="shared" si="2"/>
         <v>45526</v>
       </c>
@@ -9349,7 +9369,7 @@
       <c r="B188" t="s">
         <v>101</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="6">
         <f t="shared" si="2"/>
         <v>45525</v>
       </c>
@@ -9379,7 +9399,7 @@
       <c r="B189" t="s">
         <v>101</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="6">
         <f t="shared" si="2"/>
         <v>45524</v>
       </c>
@@ -9409,7 +9429,7 @@
       <c r="B190" t="s">
         <v>101</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="6">
         <f t="shared" si="2"/>
         <v>45523</v>
       </c>
@@ -9439,7 +9459,7 @@
       <c r="B191" t="s">
         <v>101</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="6">
         <f t="shared" si="2"/>
         <v>45520</v>
       </c>
@@ -9469,7 +9489,7 @@
       <c r="B192" t="s">
         <v>101</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="6">
         <f t="shared" si="2"/>
         <v>45519</v>
       </c>
@@ -9499,7 +9519,7 @@
       <c r="B193" t="s">
         <v>101</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="6">
         <f t="shared" si="2"/>
         <v>45518</v>
       </c>
@@ -9529,7 +9549,7 @@
       <c r="B194" t="s">
         <v>101</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="6">
         <f t="shared" si="2"/>
         <v>45517</v>
       </c>
@@ -9559,7 +9579,7 @@
       <c r="B195" t="s">
         <v>101</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="6">
         <f t="shared" ref="C195:C258" si="3">DATE(RIGHT(A195,4),LEFT(A195,2),RIGHT(LEFT(A195,5),2))</f>
         <v>45516</v>
       </c>
@@ -9589,7 +9609,7 @@
       <c r="B196" t="s">
         <v>101</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="6">
         <f t="shared" si="3"/>
         <v>45513</v>
       </c>
@@ -9619,7 +9639,7 @@
       <c r="B197" t="s">
         <v>101</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="6">
         <f t="shared" si="3"/>
         <v>45512</v>
       </c>
@@ -9649,7 +9669,7 @@
       <c r="B198" t="s">
         <v>101</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="6">
         <f t="shared" si="3"/>
         <v>45511</v>
       </c>
@@ -9679,7 +9699,7 @@
       <c r="B199" t="s">
         <v>101</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="6">
         <f t="shared" si="3"/>
         <v>45510</v>
       </c>
@@ -9709,7 +9729,7 @@
       <c r="B200" t="s">
         <v>101</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="6">
         <f t="shared" si="3"/>
         <v>45509</v>
       </c>
@@ -9739,7 +9759,7 @@
       <c r="B201" t="s">
         <v>101</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="6">
         <f t="shared" si="3"/>
         <v>45506</v>
       </c>
@@ -9769,7 +9789,7 @@
       <c r="B202" t="s">
         <v>101</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="6">
         <f t="shared" si="3"/>
         <v>45505</v>
       </c>
@@ -9799,7 +9819,7 @@
       <c r="B203" t="s">
         <v>101</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="6">
         <f t="shared" si="3"/>
         <v>45504</v>
       </c>
@@ -9829,7 +9849,7 @@
       <c r="B204" t="s">
         <v>101</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="6">
         <f t="shared" si="3"/>
         <v>45503</v>
       </c>
@@ -9859,7 +9879,7 @@
       <c r="B205" t="s">
         <v>101</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="6">
         <f t="shared" si="3"/>
         <v>45502</v>
       </c>
@@ -9889,7 +9909,7 @@
       <c r="B206" t="s">
         <v>101</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="6">
         <f t="shared" si="3"/>
         <v>45499</v>
       </c>
@@ -9919,7 +9939,7 @@
       <c r="B207" t="s">
         <v>101</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="6">
         <f t="shared" si="3"/>
         <v>45498</v>
       </c>
@@ -9949,7 +9969,7 @@
       <c r="B208" t="s">
         <v>101</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="6">
         <f t="shared" si="3"/>
         <v>45497</v>
       </c>
@@ -9979,7 +9999,7 @@
       <c r="B209" t="s">
         <v>101</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="6">
         <f t="shared" si="3"/>
         <v>45496</v>
       </c>
@@ -10009,7 +10029,7 @@
       <c r="B210" t="s">
         <v>101</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="6">
         <f t="shared" si="3"/>
         <v>45495</v>
       </c>
@@ -10039,7 +10059,7 @@
       <c r="B211" t="s">
         <v>101</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="6">
         <f t="shared" si="3"/>
         <v>45492</v>
       </c>
@@ -10069,7 +10089,7 @@
       <c r="B212" t="s">
         <v>101</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212" s="6">
         <f t="shared" si="3"/>
         <v>45491</v>
       </c>
@@ -10099,7 +10119,7 @@
       <c r="B213" t="s">
         <v>101</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="6">
         <f t="shared" si="3"/>
         <v>45490</v>
       </c>
@@ -10129,7 +10149,7 @@
       <c r="B214" t="s">
         <v>101</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="6">
         <f t="shared" si="3"/>
         <v>45489</v>
       </c>
@@ -10159,7 +10179,7 @@
       <c r="B215" t="s">
         <v>101</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C215" s="6">
         <f t="shared" si="3"/>
         <v>45488</v>
       </c>
@@ -10189,7 +10209,7 @@
       <c r="B216" t="s">
         <v>101</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="6">
         <f t="shared" si="3"/>
         <v>45485</v>
       </c>
@@ -10219,7 +10239,7 @@
       <c r="B217" t="s">
         <v>101</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="6">
         <f t="shared" si="3"/>
         <v>45484</v>
       </c>
@@ -10249,7 +10269,7 @@
       <c r="B218" t="s">
         <v>101</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="6">
         <f t="shared" si="3"/>
         <v>45483</v>
       </c>
@@ -10279,7 +10299,7 @@
       <c r="B219" t="s">
         <v>101</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="6">
         <f t="shared" si="3"/>
         <v>45482</v>
       </c>
@@ -10309,7 +10329,7 @@
       <c r="B220" t="s">
         <v>101</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="6">
         <f t="shared" si="3"/>
         <v>45481</v>
       </c>
@@ -10339,7 +10359,7 @@
       <c r="B221" t="s">
         <v>101</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="6">
         <f t="shared" si="3"/>
         <v>45478</v>
       </c>
@@ -10369,7 +10389,7 @@
       <c r="B222" t="s">
         <v>101</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="6">
         <f t="shared" si="3"/>
         <v>45476</v>
       </c>
@@ -10399,7 +10419,7 @@
       <c r="B223" t="s">
         <v>101</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="6">
         <f t="shared" si="3"/>
         <v>45475</v>
       </c>
@@ -10429,7 +10449,7 @@
       <c r="B224" t="s">
         <v>101</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="6">
         <f t="shared" si="3"/>
         <v>45474</v>
       </c>
@@ -10459,7 +10479,7 @@
       <c r="B225" t="s">
         <v>101</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="6">
         <f t="shared" si="3"/>
         <v>45471</v>
       </c>
@@ -10489,7 +10509,7 @@
       <c r="B226" t="s">
         <v>101</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="6">
         <f t="shared" si="3"/>
         <v>45470</v>
       </c>
@@ -10519,7 +10539,7 @@
       <c r="B227" t="s">
         <v>101</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="6">
         <f t="shared" si="3"/>
         <v>45469</v>
       </c>
@@ -10549,7 +10569,7 @@
       <c r="B228" t="s">
         <v>101</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="6">
         <f t="shared" si="3"/>
         <v>45468</v>
       </c>
@@ -10579,7 +10599,7 @@
       <c r="B229" t="s">
         <v>101</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C229" s="6">
         <f t="shared" si="3"/>
         <v>45467</v>
       </c>
@@ -10609,7 +10629,7 @@
       <c r="B230" t="s">
         <v>101</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="6">
         <f t="shared" si="3"/>
         <v>45464</v>
       </c>
@@ -10639,7 +10659,7 @@
       <c r="B231" t="s">
         <v>101</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="6">
         <f t="shared" si="3"/>
         <v>45463</v>
       </c>
@@ -10669,7 +10689,7 @@
       <c r="B232" t="s">
         <v>101</v>
       </c>
-      <c r="C232" s="7">
+      <c r="C232" s="6">
         <f t="shared" si="3"/>
         <v>45461</v>
       </c>
@@ -10699,7 +10719,7 @@
       <c r="B233" t="s">
         <v>101</v>
       </c>
-      <c r="C233" s="7">
+      <c r="C233" s="6">
         <f t="shared" si="3"/>
         <v>45460</v>
       </c>
@@ -10729,7 +10749,7 @@
       <c r="B234" t="s">
         <v>101</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C234" s="6">
         <f t="shared" si="3"/>
         <v>45457</v>
       </c>
@@ -10759,7 +10779,7 @@
       <c r="B235" t="s">
         <v>101</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="6">
         <f t="shared" si="3"/>
         <v>45456</v>
       </c>
@@ -10789,7 +10809,7 @@
       <c r="B236" t="s">
         <v>101</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="6">
         <f t="shared" si="3"/>
         <v>45455</v>
       </c>
@@ -10819,7 +10839,7 @@
       <c r="B237" t="s">
         <v>101</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="6">
         <f t="shared" si="3"/>
         <v>45454</v>
       </c>
@@ -10849,7 +10869,7 @@
       <c r="B238" t="s">
         <v>101</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="6">
         <f t="shared" si="3"/>
         <v>45453</v>
       </c>
@@ -10879,7 +10899,7 @@
       <c r="B239" t="s">
         <v>101</v>
       </c>
-      <c r="C239" s="7">
+      <c r="C239" s="6">
         <f t="shared" si="3"/>
         <v>45450</v>
       </c>
@@ -10909,7 +10929,7 @@
       <c r="B240" t="s">
         <v>101</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="6">
         <f t="shared" si="3"/>
         <v>45449</v>
       </c>
@@ -10939,7 +10959,7 @@
       <c r="B241" t="s">
         <v>101</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C241" s="6">
         <f t="shared" si="3"/>
         <v>45448</v>
       </c>
@@ -10969,7 +10989,7 @@
       <c r="B242" t="s">
         <v>101</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="6">
         <f t="shared" si="3"/>
         <v>45447</v>
       </c>
@@ -10999,7 +11019,7 @@
       <c r="B243" t="s">
         <v>101</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="6">
         <f t="shared" si="3"/>
         <v>45446</v>
       </c>
@@ -11029,7 +11049,7 @@
       <c r="B244" t="s">
         <v>101</v>
       </c>
-      <c r="C244" s="7">
+      <c r="C244" s="6">
         <f t="shared" si="3"/>
         <v>45443</v>
       </c>
@@ -11059,7 +11079,7 @@
       <c r="B245" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="7">
+      <c r="C245" s="6">
         <f t="shared" si="3"/>
         <v>45442</v>
       </c>
@@ -11089,7 +11109,7 @@
       <c r="B246" t="s">
         <v>101</v>
       </c>
-      <c r="C246" s="7">
+      <c r="C246" s="6">
         <f t="shared" si="3"/>
         <v>45441</v>
       </c>
@@ -11119,7 +11139,7 @@
       <c r="B247" t="s">
         <v>101</v>
       </c>
-      <c r="C247" s="7">
+      <c r="C247" s="6">
         <f t="shared" si="3"/>
         <v>45440</v>
       </c>
@@ -11149,7 +11169,7 @@
       <c r="B248" t="s">
         <v>101</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C248" s="6">
         <f t="shared" si="3"/>
         <v>45436</v>
       </c>
@@ -11179,7 +11199,7 @@
       <c r="B249" t="s">
         <v>101</v>
       </c>
-      <c r="C249" s="7">
+      <c r="C249" s="6">
         <f t="shared" si="3"/>
         <v>45435</v>
       </c>
@@ -11209,7 +11229,7 @@
       <c r="B250" t="s">
         <v>101</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="6">
         <f t="shared" si="3"/>
         <v>45434</v>
       </c>
@@ -11239,7 +11259,7 @@
       <c r="B251" t="s">
         <v>101</v>
       </c>
-      <c r="C251" s="7">
+      <c r="C251" s="6">
         <f t="shared" si="3"/>
         <v>45433</v>
       </c>
@@ -11269,7 +11289,7 @@
       <c r="B252" t="s">
         <v>101</v>
       </c>
-      <c r="C252" s="7">
+      <c r="C252" s="6">
         <f t="shared" si="3"/>
         <v>45432</v>
       </c>
@@ -11299,7 +11319,7 @@
       <c r="B253" t="s">
         <v>101</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="6">
         <f t="shared" si="3"/>
         <v>45429</v>
       </c>
@@ -11329,7 +11349,7 @@
       <c r="B254" t="s">
         <v>101</v>
       </c>
-      <c r="C254" s="7">
+      <c r="C254" s="6">
         <f t="shared" si="3"/>
         <v>45428</v>
       </c>
@@ -11359,7 +11379,7 @@
       <c r="B255" t="s">
         <v>101</v>
       </c>
-      <c r="C255" s="7">
+      <c r="C255" s="6">
         <f t="shared" si="3"/>
         <v>45427</v>
       </c>
@@ -11389,7 +11409,7 @@
       <c r="B256" t="s">
         <v>101</v>
       </c>
-      <c r="C256" s="7">
+      <c r="C256" s="6">
         <f t="shared" si="3"/>
         <v>45426</v>
       </c>
@@ -11419,7 +11439,7 @@
       <c r="B257" t="s">
         <v>101</v>
       </c>
-      <c r="C257" s="7">
+      <c r="C257" s="6">
         <f t="shared" si="3"/>
         <v>45425</v>
       </c>
@@ -11449,7 +11469,7 @@
       <c r="B258" t="s">
         <v>101</v>
       </c>
-      <c r="C258" s="7">
+      <c r="C258" s="6">
         <f t="shared" si="3"/>
         <v>45422</v>
       </c>
@@ -11479,7 +11499,7 @@
       <c r="B259" t="s">
         <v>101</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="6">
         <f t="shared" ref="C259:C322" si="4">DATE(RIGHT(A259,4),LEFT(A259,2),RIGHT(LEFT(A259,5),2))</f>
         <v>45421</v>
       </c>
@@ -11509,7 +11529,7 @@
       <c r="B260" t="s">
         <v>101</v>
       </c>
-      <c r="C260" s="7">
+      <c r="C260" s="6">
         <f t="shared" si="4"/>
         <v>45420</v>
       </c>
@@ -11539,7 +11559,7 @@
       <c r="B261" t="s">
         <v>101</v>
       </c>
-      <c r="C261" s="7">
+      <c r="C261" s="6">
         <f t="shared" si="4"/>
         <v>45419</v>
       </c>
@@ -11569,7 +11589,7 @@
       <c r="B262" t="s">
         <v>101</v>
       </c>
-      <c r="C262" s="7">
+      <c r="C262" s="6">
         <f t="shared" si="4"/>
         <v>45418</v>
       </c>
@@ -11599,7 +11619,7 @@
       <c r="B263" t="s">
         <v>101</v>
       </c>
-      <c r="C263" s="7">
+      <c r="C263" s="6">
         <f t="shared" si="4"/>
         <v>45415</v>
       </c>
@@ -11629,7 +11649,7 @@
       <c r="B264" t="s">
         <v>101</v>
       </c>
-      <c r="C264" s="7">
+      <c r="C264" s="6">
         <f t="shared" si="4"/>
         <v>45414</v>
       </c>
@@ -11659,7 +11679,7 @@
       <c r="B265" t="s">
         <v>101</v>
       </c>
-      <c r="C265" s="7">
+      <c r="C265" s="6">
         <f t="shared" si="4"/>
         <v>45413</v>
       </c>
@@ -11689,7 +11709,7 @@
       <c r="B266" t="s">
         <v>101</v>
       </c>
-      <c r="C266" s="7">
+      <c r="C266" s="6">
         <f t="shared" si="4"/>
         <v>45412</v>
       </c>
@@ -11719,7 +11739,7 @@
       <c r="B267" t="s">
         <v>101</v>
       </c>
-      <c r="C267" s="7">
+      <c r="C267" s="6">
         <f t="shared" si="4"/>
         <v>45411</v>
       </c>
@@ -11749,7 +11769,7 @@
       <c r="B268" t="s">
         <v>101</v>
       </c>
-      <c r="C268" s="7">
+      <c r="C268" s="6">
         <f t="shared" si="4"/>
         <v>45408</v>
       </c>
@@ -11779,7 +11799,7 @@
       <c r="B269" t="s">
         <v>101</v>
       </c>
-      <c r="C269" s="7">
+      <c r="C269" s="6">
         <f t="shared" si="4"/>
         <v>45407</v>
       </c>
@@ -11809,7 +11829,7 @@
       <c r="B270" t="s">
         <v>101</v>
       </c>
-      <c r="C270" s="7">
+      <c r="C270" s="6">
         <f t="shared" si="4"/>
         <v>45406</v>
       </c>
@@ -11839,7 +11859,7 @@
       <c r="B271" t="s">
         <v>101</v>
       </c>
-      <c r="C271" s="7">
+      <c r="C271" s="6">
         <f t="shared" si="4"/>
         <v>45405</v>
       </c>
@@ -11869,7 +11889,7 @@
       <c r="B272" t="s">
         <v>101</v>
       </c>
-      <c r="C272" s="7">
+      <c r="C272" s="6">
         <f t="shared" si="4"/>
         <v>45404</v>
       </c>
@@ -11899,7 +11919,7 @@
       <c r="B273" t="s">
         <v>101</v>
       </c>
-      <c r="C273" s="7">
+      <c r="C273" s="6">
         <f t="shared" si="4"/>
         <v>45401</v>
       </c>
@@ -11929,7 +11949,7 @@
       <c r="B274" t="s">
         <v>101</v>
       </c>
-      <c r="C274" s="7">
+      <c r="C274" s="6">
         <f t="shared" si="4"/>
         <v>45400</v>
       </c>
@@ -11959,7 +11979,7 @@
       <c r="B275" t="s">
         <v>101</v>
       </c>
-      <c r="C275" s="7">
+      <c r="C275" s="6">
         <f t="shared" si="4"/>
         <v>45399</v>
       </c>
@@ -11989,7 +12009,7 @@
       <c r="B276" t="s">
         <v>101</v>
       </c>
-      <c r="C276" s="7">
+      <c r="C276" s="6">
         <f t="shared" si="4"/>
         <v>45398</v>
       </c>
@@ -12019,7 +12039,7 @@
       <c r="B277" t="s">
         <v>101</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="6">
         <f t="shared" si="4"/>
         <v>45397</v>
       </c>
@@ -12049,7 +12069,7 @@
       <c r="B278" t="s">
         <v>101</v>
       </c>
-      <c r="C278" s="7">
+      <c r="C278" s="6">
         <f t="shared" si="4"/>
         <v>45394</v>
       </c>
@@ -12079,7 +12099,7 @@
       <c r="B279" t="s">
         <v>101</v>
       </c>
-      <c r="C279" s="7">
+      <c r="C279" s="6">
         <f t="shared" si="4"/>
         <v>45393</v>
       </c>
@@ -12109,7 +12129,7 @@
       <c r="B280" t="s">
         <v>101</v>
       </c>
-      <c r="C280" s="7">
+      <c r="C280" s="6">
         <f t="shared" si="4"/>
         <v>45392</v>
       </c>
@@ -12139,7 +12159,7 @@
       <c r="B281" t="s">
         <v>101</v>
       </c>
-      <c r="C281" s="7">
+      <c r="C281" s="6">
         <f t="shared" si="4"/>
         <v>45391</v>
       </c>
@@ -12169,7 +12189,7 @@
       <c r="B282" t="s">
         <v>101</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C282" s="6">
         <f t="shared" si="4"/>
         <v>45390</v>
       </c>
@@ -12199,7 +12219,7 @@
       <c r="B283" t="s">
         <v>101</v>
       </c>
-      <c r="C283" s="7">
+      <c r="C283" s="6">
         <f t="shared" si="4"/>
         <v>45387</v>
       </c>
@@ -12229,7 +12249,7 @@
       <c r="B284" t="s">
         <v>101</v>
       </c>
-      <c r="C284" s="7">
+      <c r="C284" s="6">
         <f t="shared" si="4"/>
         <v>45386</v>
       </c>
@@ -12259,7 +12279,7 @@
       <c r="B285" t="s">
         <v>101</v>
       </c>
-      <c r="C285" s="7">
+      <c r="C285" s="6">
         <f t="shared" si="4"/>
         <v>45385</v>
       </c>
@@ -12289,7 +12309,7 @@
       <c r="B286" t="s">
         <v>101</v>
       </c>
-      <c r="C286" s="7">
+      <c r="C286" s="6">
         <f t="shared" si="4"/>
         <v>45384</v>
       </c>
@@ -12319,7 +12339,7 @@
       <c r="B287" t="s">
         <v>101</v>
       </c>
-      <c r="C287" s="7">
+      <c r="C287" s="6">
         <f t="shared" si="4"/>
         <v>45383</v>
       </c>
@@ -12349,7 +12369,7 @@
       <c r="B288" t="s">
         <v>101</v>
       </c>
-      <c r="C288" s="7">
+      <c r="C288" s="6">
         <f t="shared" si="4"/>
         <v>45379</v>
       </c>
@@ -12379,7 +12399,7 @@
       <c r="B289" t="s">
         <v>101</v>
       </c>
-      <c r="C289" s="7">
+      <c r="C289" s="6">
         <f t="shared" si="4"/>
         <v>45378</v>
       </c>
@@ -12409,7 +12429,7 @@
       <c r="B290" t="s">
         <v>101</v>
       </c>
-      <c r="C290" s="7">
+      <c r="C290" s="6">
         <f t="shared" si="4"/>
         <v>45377</v>
       </c>
@@ -12439,7 +12459,7 @@
       <c r="B291" t="s">
         <v>101</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="6">
         <f t="shared" si="4"/>
         <v>45376</v>
       </c>
@@ -12469,7 +12489,7 @@
       <c r="B292" t="s">
         <v>101</v>
       </c>
-      <c r="C292" s="7">
+      <c r="C292" s="6">
         <f t="shared" si="4"/>
         <v>45373</v>
       </c>
@@ -12499,7 +12519,7 @@
       <c r="B293" t="s">
         <v>101</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="6">
         <f t="shared" si="4"/>
         <v>45372</v>
       </c>
@@ -12529,7 +12549,7 @@
       <c r="B294" t="s">
         <v>101</v>
       </c>
-      <c r="C294" s="7">
+      <c r="C294" s="6">
         <f t="shared" si="4"/>
         <v>45371</v>
       </c>
@@ -12559,7 +12579,7 @@
       <c r="B295" t="s">
         <v>101</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C295" s="6">
         <f t="shared" si="4"/>
         <v>45370</v>
       </c>
@@ -12589,7 +12609,7 @@
       <c r="B296" t="s">
         <v>101</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C296" s="6">
         <f t="shared" si="4"/>
         <v>45369</v>
       </c>
@@ -12619,7 +12639,7 @@
       <c r="B297" t="s">
         <v>101</v>
       </c>
-      <c r="C297" s="7">
+      <c r="C297" s="6">
         <f t="shared" si="4"/>
         <v>45366</v>
       </c>
@@ -12649,7 +12669,7 @@
       <c r="B298" t="s">
         <v>101</v>
       </c>
-      <c r="C298" s="7">
+      <c r="C298" s="6">
         <f t="shared" si="4"/>
         <v>45365</v>
       </c>
@@ -12679,7 +12699,7 @@
       <c r="B299" t="s">
         <v>101</v>
       </c>
-      <c r="C299" s="7">
+      <c r="C299" s="6">
         <f t="shared" si="4"/>
         <v>45364</v>
       </c>
@@ -12709,7 +12729,7 @@
       <c r="B300" t="s">
         <v>101</v>
       </c>
-      <c r="C300" s="7">
+      <c r="C300" s="6">
         <f t="shared" si="4"/>
         <v>45363</v>
       </c>
@@ -12739,7 +12759,7 @@
       <c r="B301" t="s">
         <v>101</v>
       </c>
-      <c r="C301" s="7">
+      <c r="C301" s="6">
         <f t="shared" si="4"/>
         <v>45362</v>
       </c>
@@ -12769,7 +12789,7 @@
       <c r="B302" t="s">
         <v>101</v>
       </c>
-      <c r="C302" s="7">
+      <c r="C302" s="6">
         <f t="shared" si="4"/>
         <v>45359</v>
       </c>
@@ -12799,7 +12819,7 @@
       <c r="B303" t="s">
         <v>101</v>
       </c>
-      <c r="C303" s="7">
+      <c r="C303" s="6">
         <f t="shared" si="4"/>
         <v>45358</v>
       </c>
@@ -12829,7 +12849,7 @@
       <c r="B304" t="s">
         <v>101</v>
       </c>
-      <c r="C304" s="7">
+      <c r="C304" s="6">
         <f t="shared" si="4"/>
         <v>45357</v>
       </c>
@@ -12859,7 +12879,7 @@
       <c r="B305" t="s">
         <v>101</v>
       </c>
-      <c r="C305" s="7">
+      <c r="C305" s="6">
         <f t="shared" si="4"/>
         <v>45356</v>
       </c>
@@ -12889,7 +12909,7 @@
       <c r="B306" t="s">
         <v>101</v>
       </c>
-      <c r="C306" s="7">
+      <c r="C306" s="6">
         <f t="shared" si="4"/>
         <v>45355</v>
       </c>
@@ -12919,7 +12939,7 @@
       <c r="B307" t="s">
         <v>101</v>
       </c>
-      <c r="C307" s="7">
+      <c r="C307" s="6">
         <f t="shared" si="4"/>
         <v>45352</v>
       </c>
@@ -12949,7 +12969,7 @@
       <c r="B308" t="s">
         <v>101</v>
       </c>
-      <c r="C308" s="7">
+      <c r="C308" s="6">
         <f t="shared" si="4"/>
         <v>45351</v>
       </c>
@@ -12979,7 +12999,7 @@
       <c r="B309" t="s">
         <v>101</v>
       </c>
-      <c r="C309" s="7">
+      <c r="C309" s="6">
         <f t="shared" si="4"/>
         <v>45350</v>
       </c>
@@ -13009,7 +13029,7 @@
       <c r="B310" t="s">
         <v>101</v>
       </c>
-      <c r="C310" s="7">
+      <c r="C310" s="6">
         <f t="shared" si="4"/>
         <v>45349</v>
       </c>
@@ -13039,7 +13059,7 @@
       <c r="B311" t="s">
         <v>101</v>
       </c>
-      <c r="C311" s="7">
+      <c r="C311" s="6">
         <f t="shared" si="4"/>
         <v>45348</v>
       </c>
@@ -13069,7 +13089,7 @@
       <c r="B312" t="s">
         <v>101</v>
       </c>
-      <c r="C312" s="7">
+      <c r="C312" s="6">
         <f t="shared" si="4"/>
         <v>45345</v>
       </c>
@@ -13099,7 +13119,7 @@
       <c r="B313" t="s">
         <v>101</v>
       </c>
-      <c r="C313" s="7">
+      <c r="C313" s="6">
         <f t="shared" si="4"/>
         <v>45344</v>
       </c>
@@ -13129,7 +13149,7 @@
       <c r="B314" t="s">
         <v>101</v>
       </c>
-      <c r="C314" s="7">
+      <c r="C314" s="6">
         <f t="shared" si="4"/>
         <v>45343</v>
       </c>
@@ -13159,7 +13179,7 @@
       <c r="B315" t="s">
         <v>101</v>
       </c>
-      <c r="C315" s="7">
+      <c r="C315" s="6">
         <f t="shared" si="4"/>
         <v>45342</v>
       </c>
@@ -13189,7 +13209,7 @@
       <c r="B316" t="s">
         <v>101</v>
       </c>
-      <c r="C316" s="7">
+      <c r="C316" s="6">
         <f t="shared" si="4"/>
         <v>45338</v>
       </c>
@@ -13219,7 +13239,7 @@
       <c r="B317" t="s">
         <v>101</v>
       </c>
-      <c r="C317" s="7">
+      <c r="C317" s="6">
         <f t="shared" si="4"/>
         <v>45337</v>
       </c>
@@ -13249,7 +13269,7 @@
       <c r="B318" t="s">
         <v>101</v>
       </c>
-      <c r="C318" s="7">
+      <c r="C318" s="6">
         <f t="shared" si="4"/>
         <v>45336</v>
       </c>
@@ -13279,7 +13299,7 @@
       <c r="B319" t="s">
         <v>101</v>
       </c>
-      <c r="C319" s="7">
+      <c r="C319" s="6">
         <f t="shared" si="4"/>
         <v>45335</v>
       </c>
@@ -13309,7 +13329,7 @@
       <c r="B320" t="s">
         <v>101</v>
       </c>
-      <c r="C320" s="7">
+      <c r="C320" s="6">
         <f t="shared" si="4"/>
         <v>45334</v>
       </c>
@@ -13339,7 +13359,7 @@
       <c r="B321" t="s">
         <v>101</v>
       </c>
-      <c r="C321" s="7">
+      <c r="C321" s="6">
         <f t="shared" si="4"/>
         <v>45331</v>
       </c>
@@ -13369,7 +13389,7 @@
       <c r="B322" t="s">
         <v>101</v>
       </c>
-      <c r="C322" s="7">
+      <c r="C322" s="6">
         <f t="shared" si="4"/>
         <v>45330</v>
       </c>
@@ -13399,7 +13419,7 @@
       <c r="B323" t="s">
         <v>101</v>
       </c>
-      <c r="C323" s="7">
+      <c r="C323" s="6">
         <f t="shared" ref="C323:C348" si="5">DATE(RIGHT(A323,4),LEFT(A323,2),RIGHT(LEFT(A323,5),2))</f>
         <v>45329</v>
       </c>
@@ -13429,7 +13449,7 @@
       <c r="B324" t="s">
         <v>101</v>
       </c>
-      <c r="C324" s="7">
+      <c r="C324" s="6">
         <f t="shared" si="5"/>
         <v>45328</v>
       </c>
@@ -13459,7 +13479,7 @@
       <c r="B325" t="s">
         <v>101</v>
       </c>
-      <c r="C325" s="7">
+      <c r="C325" s="6">
         <f t="shared" si="5"/>
         <v>45327</v>
       </c>
@@ -13489,7 +13509,7 @@
       <c r="B326" t="s">
         <v>101</v>
       </c>
-      <c r="C326" s="7">
+      <c r="C326" s="6">
         <f t="shared" si="5"/>
         <v>45324</v>
       </c>
@@ -13519,7 +13539,7 @@
       <c r="B327" t="s">
         <v>101</v>
       </c>
-      <c r="C327" s="7">
+      <c r="C327" s="6">
         <f t="shared" si="5"/>
         <v>45323</v>
       </c>
@@ -13549,7 +13569,7 @@
       <c r="B328" t="s">
         <v>101</v>
       </c>
-      <c r="C328" s="7">
+      <c r="C328" s="6">
         <f t="shared" si="5"/>
         <v>45322</v>
       </c>
@@ -13579,7 +13599,7 @@
       <c r="B329" t="s">
         <v>101</v>
       </c>
-      <c r="C329" s="7">
+      <c r="C329" s="6">
         <f t="shared" si="5"/>
         <v>45321</v>
       </c>
@@ -13609,7 +13629,7 @@
       <c r="B330" t="s">
         <v>101</v>
       </c>
-      <c r="C330" s="7">
+      <c r="C330" s="6">
         <f t="shared" si="5"/>
         <v>45320</v>
       </c>
@@ -13639,7 +13659,7 @@
       <c r="B331" t="s">
         <v>101</v>
       </c>
-      <c r="C331" s="7">
+      <c r="C331" s="6">
         <f t="shared" si="5"/>
         <v>45317</v>
       </c>
@@ -13669,7 +13689,7 @@
       <c r="B332" t="s">
         <v>101</v>
       </c>
-      <c r="C332" s="7">
+      <c r="C332" s="6">
         <f t="shared" si="5"/>
         <v>45316</v>
       </c>
@@ -13699,7 +13719,7 @@
       <c r="B333" t="s">
         <v>101</v>
       </c>
-      <c r="C333" s="7">
+      <c r="C333" s="6">
         <f t="shared" si="5"/>
         <v>45315</v>
       </c>
@@ -13729,7 +13749,7 @@
       <c r="B334" t="s">
         <v>101</v>
       </c>
-      <c r="C334" s="7">
+      <c r="C334" s="6">
         <f t="shared" si="5"/>
         <v>45314</v>
       </c>
@@ -13759,7 +13779,7 @@
       <c r="B335" t="s">
         <v>101</v>
       </c>
-      <c r="C335" s="7">
+      <c r="C335" s="6">
         <f t="shared" si="5"/>
         <v>45313</v>
       </c>
@@ -13789,7 +13809,7 @@
       <c r="B336" t="s">
         <v>101</v>
       </c>
-      <c r="C336" s="7">
+      <c r="C336" s="6">
         <f t="shared" si="5"/>
         <v>45310</v>
       </c>
@@ -13819,7 +13839,7 @@
       <c r="B337" t="s">
         <v>101</v>
       </c>
-      <c r="C337" s="7">
+      <c r="C337" s="6">
         <f t="shared" si="5"/>
         <v>45309</v>
       </c>
@@ -13849,7 +13869,7 @@
       <c r="B338" t="s">
         <v>101</v>
       </c>
-      <c r="C338" s="7">
+      <c r="C338" s="6">
         <f t="shared" si="5"/>
         <v>45308</v>
       </c>
@@ -13879,7 +13899,7 @@
       <c r="B339" t="s">
         <v>101</v>
       </c>
-      <c r="C339" s="7">
+      <c r="C339" s="6">
         <f t="shared" si="5"/>
         <v>45307</v>
       </c>
@@ -13909,7 +13929,7 @@
       <c r="B340" t="s">
         <v>101</v>
       </c>
-      <c r="C340" s="7">
+      <c r="C340" s="6">
         <f t="shared" si="5"/>
         <v>45303</v>
       </c>
@@ -13939,7 +13959,7 @@
       <c r="B341" t="s">
         <v>101</v>
       </c>
-      <c r="C341" s="7">
+      <c r="C341" s="6">
         <f t="shared" si="5"/>
         <v>45302</v>
       </c>
@@ -13969,7 +13989,7 @@
       <c r="B342" t="s">
         <v>101</v>
       </c>
-      <c r="C342" s="7">
+      <c r="C342" s="6">
         <f t="shared" si="5"/>
         <v>45301</v>
       </c>
@@ -13999,7 +14019,7 @@
       <c r="B343" t="s">
         <v>101</v>
       </c>
-      <c r="C343" s="7">
+      <c r="C343" s="6">
         <f t="shared" si="5"/>
         <v>45300</v>
       </c>
@@ -14029,7 +14049,7 @@
       <c r="B344" t="s">
         <v>101</v>
       </c>
-      <c r="C344" s="7">
+      <c r="C344" s="6">
         <f t="shared" si="5"/>
         <v>45299</v>
       </c>
@@ -14059,7 +14079,7 @@
       <c r="B345" t="s">
         <v>101</v>
       </c>
-      <c r="C345" s="7">
+      <c r="C345" s="6">
         <f t="shared" si="5"/>
         <v>45296</v>
       </c>
@@ -14089,7 +14109,7 @@
       <c r="B346" t="s">
         <v>101</v>
       </c>
-      <c r="C346" s="7">
+      <c r="C346" s="6">
         <f t="shared" si="5"/>
         <v>45295</v>
       </c>
@@ -14119,7 +14139,7 @@
       <c r="B347" t="s">
         <v>101</v>
       </c>
-      <c r="C347" s="7">
+      <c r="C347" s="6">
         <f t="shared" si="5"/>
         <v>45294</v>
       </c>
@@ -14149,7 +14169,7 @@
       <c r="B348" t="s">
         <v>101</v>
       </c>
-      <c r="C348" s="7">
+      <c r="C348" s="6">
         <f t="shared" si="5"/>
         <v>45293</v>
       </c>
@@ -14178,18 +14198,578 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD817F66-3CC2-D549-A7F2-F2C852DB205A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D370B9CE-1E4A-9642-A85F-669E9DEED50A}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4.3083499999999997E-2</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F17" si="0">P3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="2">
+        <v>0.99892400000000003</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.3149199999999999E-2</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="2">
+        <v>0.99808600000000003</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4.3179000000000002E-2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2">
+        <v>0.99724900000000005</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.3230499999999998E-2</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2">
+        <v>0.99581500000000001</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4.3283799999999997E-2</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2">
+        <v>0.99248199999999998</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4.32185E-2</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2">
+        <v>0.98884000000000005</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.3148800000000001E-2</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="2">
+        <v>0.98512</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4.2944000000000003E-2</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="2">
+        <v>0.98184099999999996</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4.2667999999999998E-2</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2">
+        <v>0.97842300000000004</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4.2358300000000002E-2</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2">
+        <v>0.97509400000000002</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.2030199999999997E-2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>0.97195900000000002</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.1661999999999998E-2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.96859899999999999</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.13701E-2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.96579899999999996</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.1052900000000003E-2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.96297299999999997</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.0749800000000003E-2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.960094</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD817F66-3CC2-D549-A7F2-F2C852DB205A}">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45807</v>
+      </c>
+      <c r="B3" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.8041999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45838</v>
+      </c>
+      <c r="B4" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2.0834999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45869</v>
+      </c>
+      <c r="B5" s="13">
+        <v>33.5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2.0166E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45898</v>
+      </c>
+      <c r="B6" s="13">
+        <v>46.45</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.9843E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45930</v>
+      </c>
+      <c r="B7" s="13">
+        <v>60.5</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.9578000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45961</v>
+      </c>
+      <c r="B8" s="13">
+        <v>74.5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.9535E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45989</v>
+      </c>
+      <c r="B9" s="13">
+        <v>86.5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.9354E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>46022</v>
+      </c>
+      <c r="B10" s="13">
+        <v>102</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1.9460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>46052</v>
+      </c>
+      <c r="B11" s="13">
+        <v>116.75</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1.9644999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>46080</v>
+      </c>
+      <c r="B12" s="13">
+        <v>130.25</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.9736E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>46111</v>
+      </c>
+      <c r="B13" s="13">
+        <v>145.75</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1.9893999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>46142</v>
+      </c>
+      <c r="B14" s="13">
+        <v>166</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2.0619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>46171</v>
+      </c>
+      <c r="B15" s="13">
+        <v>180.75</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2.0715999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E415F5-B621-F640-AE11-8393F8CDBC96}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14201,276 +14781,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27A0B6-1D19-CA4A-BA02-75C16159EDD4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAD2ED3-B3C3-6C44-AC56-B1573536567C}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="7">
-        <v>45798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>4.0749800000000003E-2</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>0.960094</v>
-      </c>
-      <c r="H3" s="8">
-        <v>4.0502099999999999E-2</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>3.7767000000000002E-2</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>0.92748200000000003</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3.8646300000000001E-2</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3.7051000000000001E-2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>0.89504499999999998</v>
-      </c>
-      <c r="H5" s="8">
-        <v>3.7537899999999999E-2</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3.7069999999999999E-2</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>0.86265800000000004</v>
-      </c>
-      <c r="H6" s="8">
-        <v>3.6858599999999998E-2</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3.7380499999999997E-2</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>0.83005099999999998</v>
-      </c>
-      <c r="H7" s="8">
-        <v>3.7192599999999999E-2</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3.7866999999999998E-2</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>0.797234</v>
-      </c>
-      <c r="H8" s="8">
-        <v>3.7716199999999998E-2</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3.8377500000000002E-2</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>0.76466800000000001</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3.8270600000000002E-2</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3.88615E-2</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>0.73267700000000002</v>
-      </c>
-      <c r="H10" s="8">
-        <v>3.8801599999999999E-2</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <v>3.93125E-2</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>0.70168600000000003</v>
-      </c>
-      <c r="H11" s="8">
-        <v>3.9303499999999998E-2</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3.9746499999999997E-2</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>0.67141300000000004</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3.9793500000000002E-2</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>